--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/11,25/24,11,25 Ост КИ Ташкент/Ташкент 02,12.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/11,25/24,11,25 Ост КИ Ташкент/Ташкент 02,12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336B338-3CF6-4844-825B-599AD691F7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0001F39-CB79-4B81-B051-9F37359BACF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,13 +533,16 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,13 +574,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -589,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1900</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
